--- a/test/templates/template.xlsx
+++ b/test/templates/template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sd\Documents\ExcelTemplating\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A4543A-CFC0-439B-84B5-FFEDCD7A1FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="OrderTable">Table3[#All]</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,16 +36,16 @@
     <t>Age</t>
   </si>
   <si>
-    <t>${table:people.name}</t>
+    <t>{table:people.name}</t>
   </si>
   <si>
-    <t>${table:people.age}</t>
+    <t>{table:people.age}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,11 +123,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:B2" totalsRowShown="0">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="Age" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
